--- a/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C917687A-21CE-4519-841D-B035AE54D5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3368D1D3-395C-45C6-962A-ED273803B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C989BE3D-7AD7-4E77-8BF1-80FD8832D198}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E80FD1A8-DAD0-42A4-9173-77D126F3B7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>90,35%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>86,0%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,7 +197,7 @@
     <t>96,47%</t>
   </si>
   <si>
-    <t>84,8%</t>
+    <t>79,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -206,19 +206,19 @@
     <t>87,5%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -227,79 +227,79 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,2%</t>
+    <t>20,28%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,637 +311,619 @@
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>83,23%</t>
+    <t>83,65%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>16,77%</t>
+    <t>16,35%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>81,6%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>75,97%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>24,03%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01220A7D-385A-4D2E-BFAA-7003B3CABCFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9938DE00-1D69-4A63-8F4D-4479F54A338D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,7 +1471,7 @@
         <v>499</v>
       </c>
       <c r="I4" s="7">
-        <v>505464</v>
+        <v>505463</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1591,7 +1573,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569B65D6-9428-4C24-A82D-4F533F0E5E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A399EAB3-276A-4F48-A70D-32D781BF76F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A834F5BB-1353-4F35-BE3F-7B0694C65EAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062DCDCC-C1BF-4FC5-9457-55FAAF54C621}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2976,7 +2958,7 @@
         <v>324</v>
       </c>
       <c r="D4" s="7">
-        <v>297620</v>
+        <v>297619</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -3078,7 +3060,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3295,7 +3277,7 @@
         <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3304,10 +3286,10 @@
         <v>32298</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>53</v>
@@ -3319,13 +3301,13 @@
         <v>71151</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3322,13 @@
         <v>3176</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3355,13 +3337,13 @@
         <v>1376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3370,13 +3352,13 @@
         <v>4552</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3426,13 @@
         <v>518365</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
@@ -3459,13 +3441,13 @@
         <v>607756</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>1068</v>
@@ -3474,13 +3456,13 @@
         <v>1126121</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3477,13 @@
         <v>70098</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>133</v>
@@ -3510,13 +3492,13 @@
         <v>168749</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -3525,13 +3507,13 @@
         <v>238847</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A9F4E2-E143-4CF3-BAC3-B42A73F8A756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC9962-7E53-4BF1-980D-A91F708C6A58}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3712,13 @@
         <v>226454</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>705</v>
@@ -3745,13 +3727,13 @@
         <v>380803</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>1038</v>
@@ -3760,13 +3742,13 @@
         <v>607257</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3763,13 @@
         <v>58996</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>304</v>
@@ -3796,13 +3778,13 @@
         <v>168385</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -3811,13 +3793,13 @@
         <v>227381</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3867,13 @@
         <v>268195</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>459</v>
@@ -3900,28 +3882,28 @@
         <v>351334</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>847</v>
       </c>
       <c r="N7" s="7">
-        <v>619528</v>
+        <v>619529</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3918,13 @@
         <v>26371</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -3951,13 +3933,13 @@
         <v>34712</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -3966,13 +3948,13 @@
         <v>61083</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,7 +3996,7 @@
         <v>954</v>
       </c>
       <c r="N9" s="7">
-        <v>680611</v>
+        <v>680612</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4040,13 +4022,13 @@
         <v>105709</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -4055,13 +4037,13 @@
         <v>72509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>301</v>
@@ -4070,13 +4052,13 @@
         <v>178218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4073,13 @@
         <v>6277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4106,13 +4088,13 @@
         <v>5736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4121,13 +4103,13 @@
         <v>12013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4177,13 @@
         <v>600357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1306</v>
@@ -4210,13 +4192,13 @@
         <v>804645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>2186</v>
@@ -4225,13 +4207,13 @@
         <v>1405003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4228,13 @@
         <v>91645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>383</v>
@@ -4261,13 +4243,13 @@
         <v>208833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -4276,13 +4258,13 @@
         <v>300478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3368D1D3-395C-45C6-962A-ED273803B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD7D5B89-AE5F-4C33-929C-DA8C25A1F8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E80FD1A8-DAD0-42A4-9173-77D126F3B7DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6F9E474-ADD9-462C-9C6E-15E9BF2CC0DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>90,35%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>86,0%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>92,47%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -149,19 +149,19 @@
     <t>91,24%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>2,78%</t>
@@ -170,25 +170,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,7 +197,7 @@
     <t>96,47%</t>
   </si>
   <si>
-    <t>79,72%</t>
+    <t>82,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -206,19 +206,19 @@
     <t>87,5%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -227,691 +227,703 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,28%</t>
+    <t>17,91%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
   </si>
   <si>
     <t>24,03%</t>
@@ -1335,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9938DE00-1D69-4A63-8F4D-4479F54A338D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C05F58-C196-4CDF-9F78-69678C5E5DD7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,7 +1483,7 @@
         <v>499</v>
       </c>
       <c r="I4" s="7">
-        <v>505463</v>
+        <v>505464</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1573,7 +1585,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A399EAB3-276A-4F48-A70D-32D781BF76F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A8FE2-869B-4438-94F2-C97BE7A24386}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062DCDCC-C1BF-4FC5-9457-55FAAF54C621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24E0C78-B2DA-475E-8A5C-9A33F369A4D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,7 +2970,7 @@
         <v>324</v>
       </c>
       <c r="D4" s="7">
-        <v>297619</v>
+        <v>297620</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -3060,7 +3072,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3277,7 +3289,7 @@
         <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3286,10 +3298,10 @@
         <v>32298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>53</v>
@@ -3301,13 +3313,13 @@
         <v>71151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3334,13 @@
         <v>3176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3337,13 +3349,13 @@
         <v>1376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3352,13 +3364,13 @@
         <v>4552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3438,13 @@
         <v>518365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>521</v>
@@ -3441,13 +3453,13 @@
         <v>607756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>1068</v>
@@ -3456,13 +3468,13 @@
         <v>1126121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3489,13 @@
         <v>70098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>133</v>
@@ -3492,10 +3504,10 @@
         <v>168749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>222</v>
@@ -3588,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC9962-7E53-4BF1-980D-A91F708C6A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E20715C-B41F-47EB-A64B-B4C5D0E794EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,10 +4052,10 @@
         <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>301</v>
@@ -4052,13 +4064,13 @@
         <v>178218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4085,13 @@
         <v>6277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4088,13 +4100,13 @@
         <v>5736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4103,13 +4115,13 @@
         <v>12013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4189,13 @@
         <v>600357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1306</v>
@@ -4192,13 +4204,13 @@
         <v>804645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2186</v>
@@ -4207,13 +4219,13 @@
         <v>1405003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4240,13 @@
         <v>91645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>383</v>
@@ -4243,13 +4255,13 @@
         <v>208833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -4258,13 +4270,13 @@
         <v>300478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD7D5B89-AE5F-4C33-929C-DA8C25A1F8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99165A36-BDAA-4FFB-9CAC-9DA1E975B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6F9E474-ADD9-462C-9C6E-15E9BF2CC0DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FCCE8ED-5106-48DE-BD1B-A317D281E79A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>90,35%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>86,0%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>9,65%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,7 +197,7 @@
     <t>96,47%</t>
   </si>
   <si>
-    <t>82,09%</t>
+    <t>84,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -206,7 +206,7 @@
     <t>87,5%</t>
   </si>
   <si>
-    <t>69,85%</t>
+    <t>70,18%</t>
   </si>
   <si>
     <t>96,54%</t>
@@ -215,10 +215,10 @@
     <t>92,93%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -227,7 +227,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,91%</t>
+    <t>15,2%</t>
   </si>
   <si>
     <t>12,5%</t>
@@ -236,706 +236,712 @@
     <t>3,46%</t>
   </si>
   <si>
-    <t>30,15%</t>
+    <t>29,82%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>78,21%</t>
+    <t>83,23%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>21,79%</t>
+    <t>16,77%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>76,68%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>19,54%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C05F58-C196-4CDF-9F78-69678C5E5DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB005317-3F8E-412B-8A1F-6C64691022BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A8FE2-869B-4438-94F2-C97BE7A24386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D89357-F404-48BF-AC1C-81473F5AFD83}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24E0C78-B2DA-475E-8A5C-9A33F369A4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A990F755-0340-4665-B615-D0110F325769}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3465,7 @@
         <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>1068</v>
@@ -3468,13 +3474,13 @@
         <v>1126121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>70098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>133</v>
@@ -3504,13 +3510,13 @@
         <v>168749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>210</v>
@@ -3519,13 +3525,13 @@
         <v>238847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E20715C-B41F-47EB-A64B-B4C5D0E794EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C934FF5-3AD2-4CB1-AD5C-EFBB52E191A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3730,13 @@
         <v>226454</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>705</v>
@@ -3739,13 +3745,13 @@
         <v>380803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>1038</v>
@@ -3754,13 +3760,13 @@
         <v>607257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3781,13 @@
         <v>58996</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>304</v>
@@ -3790,13 +3796,13 @@
         <v>168385</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>396</v>
@@ -3805,13 +3811,13 @@
         <v>227381</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3885,13 @@
         <v>268195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>459</v>
@@ -3894,28 +3900,28 @@
         <v>351334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>847</v>
       </c>
       <c r="N7" s="7">
-        <v>619529</v>
+        <v>619528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>26371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>69</v>
@@ -3945,13 +3951,13 @@
         <v>34712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -3960,13 +3966,13 @@
         <v>61083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4014,7 @@
         <v>954</v>
       </c>
       <c r="N9" s="7">
-        <v>680612</v>
+        <v>680611</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4034,13 +4040,13 @@
         <v>105709</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -4049,13 +4055,13 @@
         <v>72509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>301</v>
@@ -4064,13 +4070,13 @@
         <v>178218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4091,13 @@
         <v>6277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4100,13 +4106,13 @@
         <v>5736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -4115,13 +4121,13 @@
         <v>12013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4195,13 @@
         <v>600357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1306</v>
@@ -4204,13 +4210,13 @@
         <v>804645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>2186</v>
@@ -4219,13 +4225,13 @@
         <v>1405003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4246,13 @@
         <v>91645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>383</v>
@@ -4255,13 +4261,13 @@
         <v>208833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>522</v>
@@ -4270,13 +4276,13 @@
         <v>300478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99165A36-BDAA-4FFB-9CAC-9DA1E975B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{390B0508-A43A-4995-87AA-932495AB326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FCCE8ED-5106-48DE-BD1B-A317D281E79A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{77A1BC07-36D2-439A-AB71-44EFF95931FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -74,6 +74,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>90,35%</t>
   </si>
   <si>
@@ -101,42 +131,39 @@
     <t>89,8%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
     <t>97,22%</t>
   </si>
   <si>
@@ -164,36 +191,36 @@
     <t>97,48%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
     <t>96,47%</t>
   </si>
   <si>
@@ -221,31 +248,31 @@
     <t>98,15%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>92,06%</t>
@@ -275,39 +302,39 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
     <t>82,04%</t>
   </si>
   <si>
@@ -335,31 +362,31 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>93,17%</t>
@@ -389,31 +416,28 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>96,29%</t>
@@ -440,28 +464,31 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>85,07%</t>
@@ -491,36 +518,33 @@
     <t>81,29%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
     <t>84,1%</t>
   </si>
   <si>
@@ -545,28 +569,31 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>94,47%</t>
@@ -596,31 +623,28 @@
     <t>93,28%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>92,44%</t>
@@ -647,28 +671,31 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>88,09%</t>
@@ -698,250 +725,217 @@
     <t>84,75%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB005317-3F8E-412B-8A1F-6C64691022BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A5B0B9-6229-4163-BD9C-7177A9BEA6F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>337189</v>
+        <v>36000</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1486,10 +1480,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>505464</v>
+        <v>82286</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1501,10 +1495,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>859</v>
+        <v>114</v>
       </c>
       <c r="N4" s="7">
-        <v>842653</v>
+        <v>118285</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1522,10 +1516,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="D5" s="7">
-        <v>36000</v>
+        <v>337189</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1537,10 +1531,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>75</v>
+        <v>499</v>
       </c>
       <c r="I5" s="7">
-        <v>82286</v>
+        <v>505463</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1552,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>114</v>
+        <v>859</v>
       </c>
       <c r="N5" s="7">
-        <v>118285</v>
+        <v>842653</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1591,7 +1585,7 @@
         <v>574</v>
       </c>
       <c r="I6" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1626,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>85636</v>
+        <v>2447</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1641,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>56763</v>
+        <v>5449</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1656,10 +1650,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>142399</v>
+        <v>7896</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1677,10 +1671,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>2447</v>
+        <v>85636</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1692,10 +1686,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>5449</v>
+        <v>56763</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1707,10 +1701,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>7896</v>
+        <v>142399</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1781,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>39740</v>
+        <v>1454</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1796,10 +1790,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>23520</v>
+        <v>3361</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1811,10 +1805,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>63260</v>
+        <v>4815</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1832,10 +1826,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>1454</v>
+        <v>39740</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1847,10 +1841,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>3361</v>
+        <v>23520</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1862,10 +1856,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>4815</v>
+        <v>63260</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1936,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>462565</v>
+        <v>39901</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1951,10 +1945,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>578</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>585747</v>
+        <v>91095</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1966,10 +1960,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1058</v>
+        <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>1048312</v>
+        <v>130996</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1987,10 +1981,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>480</v>
       </c>
       <c r="D14" s="7">
-        <v>39901</v>
+        <v>462565</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2002,10 +1996,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
+        <v>578</v>
       </c>
       <c r="I14" s="7">
-        <v>91095</v>
+        <v>585747</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2017,10 +2011,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>1058</v>
       </c>
       <c r="N14" s="7">
-        <v>130996</v>
+        <v>1048312</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2104,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D89357-F404-48BF-AC1C-81473F5AFD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3F43C7-E484-4D35-A9F8-071E5AA5A6A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
-        <v>339952</v>
+        <v>74446</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2237,10 +2231,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>438</v>
+        <v>158</v>
       </c>
       <c r="I4" s="7">
-        <v>461298</v>
+        <v>173247</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2252,10 +2246,10 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>753</v>
+        <v>221</v>
       </c>
       <c r="N4" s="7">
-        <v>801249</v>
+        <v>247693</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2273,10 +2267,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="D5" s="7">
-        <v>74446</v>
+        <v>339952</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2288,10 +2282,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="I5" s="7">
-        <v>173247</v>
+        <v>461298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2303,10 +2297,10 @@
         <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>221</v>
+        <v>753</v>
       </c>
       <c r="N5" s="7">
-        <v>247693</v>
+        <v>801249</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2377,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>110562</v>
+        <v>8103</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2392,10 +2386,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>70296</v>
+        <v>12778</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2407,10 +2401,10 @@
         <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>180858</v>
+        <v>20881</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2428,10 +2422,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>8103</v>
+        <v>110562</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2443,10 +2437,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>12778</v>
+        <v>70296</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2458,10 +2452,10 @@
         <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="N8" s="7">
-        <v>20881</v>
+        <v>180858</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2532,25 +2526,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>25589</v>
+        <v>986</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>18931</v>
+        <v>3315</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2562,10 +2556,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>44521</v>
+        <v>4300</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2583,25 +2577,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>986</v>
+        <v>25589</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>3315</v>
+        <v>18931</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2613,10 +2607,10 @@
         <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>4300</v>
+        <v>44521</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2687,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>476102</v>
+        <v>83535</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2702,10 +2696,10 @@
         <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="I13" s="7">
-        <v>550525</v>
+        <v>189340</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2717,10 +2711,10 @@
         <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>950</v>
+        <v>245</v>
       </c>
       <c r="N13" s="7">
-        <v>1026627</v>
+        <v>272875</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>147</v>
@@ -2738,10 +2732,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="D14" s="7">
-        <v>83535</v>
+        <v>476102</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>150</v>
@@ -2753,10 +2747,10 @@
         <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>173</v>
+        <v>518</v>
       </c>
       <c r="I14" s="7">
-        <v>189340</v>
+        <v>550525</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2768,10 +2762,10 @@
         <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>245</v>
+        <v>950</v>
       </c>
       <c r="N14" s="7">
-        <v>272875</v>
+        <v>1026627</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>156</v>
@@ -2855,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A990F755-0340-4665-B615-D0110F325769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F616C1-11CB-4F06-9A61-53A932F3AD34}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,10 +2967,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7">
-        <v>297620</v>
+        <v>56282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -2988,10 +2982,10 @@
         <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>412821</v>
+        <v>141936</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>144</v>
@@ -3003,10 +2997,10 @@
         <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>683</v>
+        <v>174</v>
       </c>
       <c r="N4" s="7">
-        <v>710440</v>
+        <v>198218</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>165</v>
@@ -3024,10 +3018,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="D5" s="7">
-        <v>56282</v>
+        <v>297619</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>168</v>
@@ -3039,10 +3033,10 @@
         <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>359</v>
       </c>
       <c r="I5" s="7">
-        <v>141936</v>
+        <v>412821</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>153</v>
@@ -3054,10 +3048,10 @@
         <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>174</v>
+        <v>683</v>
       </c>
       <c r="N5" s="7">
-        <v>198218</v>
+        <v>710440</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>173</v>
@@ -3078,7 +3072,7 @@
         <v>386</v>
       </c>
       <c r="D6" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3128,10 +3122,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>181892</v>
+        <v>10640</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>176</v>
@@ -3143,10 +3137,10 @@
         <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>162636</v>
+        <v>25438</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>179</v>
@@ -3158,10 +3152,10 @@
         <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>344529</v>
+        <v>36077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>182</v>
@@ -3179,10 +3173,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>10640</v>
+        <v>181892</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>185</v>
@@ -3194,10 +3188,10 @@
         <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>25438</v>
+        <v>162636</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>188</v>
@@ -3209,10 +3203,10 @@
         <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="N8" s="7">
-        <v>36077</v>
+        <v>344529</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>191</v>
@@ -3283,10 +3277,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>38853</v>
+        <v>3176</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>194</v>
@@ -3298,25 +3292,25 @@
         <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>32298</v>
+        <v>1376</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="M10" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>71151</v>
+        <v>4552</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>199</v>
@@ -3334,10 +3328,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>3176</v>
+        <v>38853</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>202</v>
@@ -3349,25 +3343,25 @@
         <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>1376</v>
+        <v>32298</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>4552</v>
+        <v>71151</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>207</v>
@@ -3438,10 +3432,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>518365</v>
+        <v>70098</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>210</v>
@@ -3453,10 +3447,10 @@
         <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>521</v>
+        <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>607756</v>
+        <v>168749</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>213</v>
@@ -3468,10 +3462,10 @@
         <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>1068</v>
+        <v>210</v>
       </c>
       <c r="N13" s="7">
-        <v>1126121</v>
+        <v>238847</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>216</v>
@@ -3489,10 +3483,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>547</v>
       </c>
       <c r="D14" s="7">
-        <v>70098</v>
+        <v>518365</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>219</v>
@@ -3504,10 +3498,10 @@
         <v>221</v>
       </c>
       <c r="H14" s="7">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="I14" s="7">
-        <v>168749</v>
+        <v>607756</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>222</v>
@@ -3519,10 +3513,10 @@
         <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>210</v>
+        <v>1068</v>
       </c>
       <c r="N14" s="7">
-        <v>238847</v>
+        <v>1126121</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>225</v>
@@ -3606,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C934FF5-3AD2-4CB1-AD5C-EFBB52E191A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CB7395-A536-48D9-A653-2B6D451DEC99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3724,10 +3718,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7">
-        <v>226454</v>
+        <v>54476</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3739,10 +3733,10 @@
         <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>705</v>
+        <v>304</v>
       </c>
       <c r="I4" s="7">
-        <v>380803</v>
+        <v>149688</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3754,10 +3748,10 @@
         <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>1038</v>
+        <v>396</v>
       </c>
       <c r="N4" s="7">
-        <v>607257</v>
+        <v>204164</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3775,10 +3769,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>333</v>
       </c>
       <c r="D5" s="7">
-        <v>58996</v>
+        <v>212910</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3790,10 +3784,10 @@
         <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>304</v>
+        <v>705</v>
       </c>
       <c r="I5" s="7">
-        <v>168385</v>
+        <v>345413</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3805,10 +3799,10 @@
         <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>396</v>
+        <v>1038</v>
       </c>
       <c r="N5" s="7">
-        <v>227381</v>
+        <v>558322</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3829,7 +3823,7 @@
         <v>425</v>
       </c>
       <c r="D6" s="7">
-        <v>285450</v>
+        <v>267386</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3838,7 @@
         <v>1009</v>
       </c>
       <c r="I6" s="7">
-        <v>549188</v>
+        <v>495101</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3853,7 @@
         <v>1434</v>
       </c>
       <c r="N6" s="7">
-        <v>834638</v>
+        <v>762486</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3879,10 +3873,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>268195</v>
+        <v>24397</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>247</v>
@@ -3894,10 +3888,10 @@
         <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="I7" s="7">
-        <v>351334</v>
+        <v>31186</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>250</v>
@@ -3909,10 +3903,10 @@
         <v>252</v>
       </c>
       <c r="M7" s="7">
-        <v>847</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>619528</v>
+        <v>55583</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>253</v>
@@ -3930,10 +3924,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="D8" s="7">
-        <v>26371</v>
+        <v>248860</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>256</v>
@@ -3945,10 +3939,10 @@
         <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>459</v>
       </c>
       <c r="I8" s="7">
-        <v>34712</v>
+        <v>424206</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>259</v>
@@ -3960,10 +3954,10 @@
         <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>847</v>
       </c>
       <c r="N8" s="7">
-        <v>61083</v>
+        <v>673066</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>262</v>
@@ -3984,7 +3978,7 @@
         <v>426</v>
       </c>
       <c r="D9" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +3993,7 @@
         <v>528</v>
       </c>
       <c r="I9" s="7">
-        <v>386046</v>
+        <v>455392</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4008,7 @@
         <v>954</v>
       </c>
       <c r="N9" s="7">
-        <v>680611</v>
+        <v>728649</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4034,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>105709</v>
+        <v>5661</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>265</v>
@@ -4049,10 +4043,10 @@
         <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>72509</v>
+        <v>5247</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>268</v>
@@ -4064,10 +4058,10 @@
         <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>178218</v>
+        <v>10908</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>271</v>
@@ -4085,10 +4079,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7">
-        <v>6277</v>
+        <v>99325</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>274</v>
@@ -4100,10 +4094,10 @@
         <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="I11" s="7">
-        <v>5736</v>
+        <v>66078</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>277</v>
@@ -4115,10 +4109,10 @@
         <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="N11" s="7">
-        <v>12013</v>
+        <v>165403</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>280</v>
@@ -4139,7 +4133,7 @@
         <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4148,7 @@
         <v>152</v>
       </c>
       <c r="I12" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4163,7 @@
         <v>320</v>
       </c>
       <c r="N12" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4189,10 +4183,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>880</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7">
-        <v>600357</v>
+        <v>84534</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>283</v>
@@ -4204,34 +4198,34 @@
         <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>1306</v>
+        <v>383</v>
       </c>
       <c r="I13" s="7">
-        <v>804645</v>
+        <v>186121</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>522</v>
+      </c>
+      <c r="N13" s="7">
+        <v>270655</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="M13" s="7">
-        <v>2186</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1405003</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,49 +4234,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>139</v>
+        <v>880</v>
       </c>
       <c r="D14" s="7">
-        <v>91645</v>
+        <v>561094</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1306</v>
+      </c>
+      <c r="I14" s="7">
+        <v>835696</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H14" s="7">
-        <v>383</v>
-      </c>
-      <c r="I14" s="7">
-        <v>208833</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2186</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1396790</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M14" s="7">
-        <v>522</v>
-      </c>
-      <c r="N14" s="7">
-        <v>300478</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4288,7 @@
         <v>1019</v>
       </c>
       <c r="D15" s="7">
-        <v>692002</v>
+        <v>645628</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4303,7 @@
         <v>1689</v>
       </c>
       <c r="I15" s="7">
-        <v>1013478</v>
+        <v>1021817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4318,7 @@
         <v>2708</v>
       </c>
       <c r="N15" s="7">
-        <v>1705481</v>
+        <v>1667445</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
